--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2681.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2681.xlsx
@@ -354,7 +354,7 @@
         <v>2.420496672379711</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.330552636877226</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2681.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2681.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161516417929052</v>
+        <v>0.8962752223014832</v>
       </c>
       <c r="B1">
-        <v>2.420496672379711</v>
+        <v>1.223539352416992</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.062266826629639</v>
       </c>
       <c r="D1">
-        <v>2.330552636877226</v>
+        <v>4.513389110565186</v>
       </c>
       <c r="E1">
-        <v>1.213856443332434</v>
+        <v>2.172746658325195</v>
       </c>
     </row>
   </sheetData>
